--- a/Data/prediction_data1.xlsx
+++ b/Data/prediction_data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucas\Escritorio\La dura es vida\TFM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/PycharmProjects/MasterProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DDDA0E-CB1D-4172-8423-1F52D319F27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61455CB8-6082-A541-B7F1-D7111DAF8DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43EC2E7F-2F3E-4E75-B393-58109BDFC619}"/>
+    <workbookView xWindow="3280" yWindow="1480" windowWidth="23260" windowHeight="12460" xr2:uid="{43EC2E7F-2F3E-4E75-B393-58109BDFC619}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Sa2</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>nano-Si</t>
   </si>
   <si>
@@ -103,13 +100,16 @@
   <si>
     <t>Sa avg</t>
   </si>
+  <si>
+    <t>Oil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -194,10 +194,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -518,18 +518,18 @@
   <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,19 +573,19 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -640,9 +640,9 @@
         <v>0.39554355860000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -697,9 +697,9 @@
         <v>0.35742853870000002</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -754,9 +754,9 @@
         <v>0.46992952640000002</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -811,9 +811,9 @@
         <v>0.4408875981</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -868,9 +868,9 @@
         <v>0.34330960999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -925,9 +925,9 @@
         <v>0.33544836179999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -982,9 +982,9 @@
         <v>0.2924901244</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1039,9 +1039,9 @@
         <v>0.29738648029999998</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -1096,9 +1096,9 @@
         <v>0.37146340909999997</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>0.25</v>
@@ -1153,9 +1153,9 @@
         <v>0.42550815409999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>0.25</v>
@@ -1210,9 +1210,9 @@
         <v>0.3083882369</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>0.25</v>
@@ -1267,9 +1267,9 @@
         <v>0.31107894339999997</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0.25</v>
@@ -1324,9 +1324,9 @@
         <v>0.39997808309999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0.25</v>
@@ -1381,9 +1381,9 @@
         <v>0.33055026399999998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.25</v>
@@ -1438,9 +1438,9 @@
         <v>0.33362003299999998</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>0.5</v>
@@ -1495,9 +1495,9 @@
         <v>0.36711904400000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>0.5</v>
@@ -1552,9 +1552,9 @@
         <v>0.40376819019999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>0.5</v>
@@ -1609,9 +1609,9 @@
         <v>0.31074812730000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
         <v>0.5</v>
@@ -1666,9 +1666,9 @@
         <v>0.3134847818</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
         <v>0.5</v>
@@ -1723,9 +1723,9 @@
         <v>0.34705660249999998</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>0.5</v>
@@ -1780,9 +1780,9 @@
         <v>0.3470616332</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>0.75</v>
@@ -1837,9 +1837,9 @@
         <v>0.33965286849999998</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
         <v>0.75</v>
@@ -1894,9 +1894,9 @@
         <v>0.38519879260000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
         <v>0.75</v>
@@ -1951,9 +1951,9 @@
         <v>0.35249810590000002</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
         <v>0.75</v>
@@ -2008,9 +2008,9 @@
         <v>0.34795056470000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
         <v>0.75</v>
@@ -2065,9 +2065,9 @@
         <v>0.33122167609999997</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -2122,9 +2122,9 @@
         <v>0.33779606229999998</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -2179,9 +2179,9 @@
         <v>0.40586915109999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -2236,9 +2236,9 @@
         <v>0.52917661900000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -2293,9 +2293,9 @@
         <v>0.34808289339999998</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -2350,9 +2350,9 @@
         <v>0.3457912414</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -2407,9 +2407,9 @@
         <v>0.31299039670000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1">
         <v>0.25</v>
@@ -2464,9 +2464,9 @@
         <v>0.40089081850000002</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1">
         <v>0.25</v>
@@ -2521,9 +2521,9 @@
         <v>0.40112961460000002</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
         <v>0.25</v>
@@ -2578,9 +2578,9 @@
         <v>0.37640445880000001</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1">
         <v>0.25</v>
@@ -2635,9 +2635,9 @@
         <v>0.33389205570000002</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1">
         <v>0.5</v>
@@ -2692,9 +2692,9 @@
         <v>0.34972403369999999</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1">
         <v>0.5</v>
@@ -2749,9 +2749,9 @@
         <v>0.36909572190000001</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
         <v>0.5</v>
@@ -2806,9 +2806,9 @@
         <v>0.36539455110000002</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1">
         <v>0.5</v>
@@ -2863,9 +2863,9 @@
         <v>0.36861662810000001</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1">
         <v>0.75</v>
@@ -2920,9 +2920,9 @@
         <v>0.34280941370000001</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
         <v>0.75</v>
@@ -2973,9 +2973,9 @@
         <v>0.3590900541</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1">
         <v>0.75</v>
@@ -3026,9 +3026,9 @@
         <v>0.3772980239</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1">
         <v>0.75</v>
@@ -3079,9 +3079,9 @@
         <v>0.36766440540000001</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3132,9 +3132,9 @@
         <v>0.34666176440000002</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3185,9 +3185,9 @@
         <v>0.3568673128</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3238,9 +3238,9 @@
         <v>0.35162893940000001</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3291,9 +3291,9 @@
         <v>0.35932201829999999</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1">
         <v>0.25</v>
@@ -3348,9 +3348,9 @@
         <v>0.39385740289999999</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1">
         <v>0.25</v>
@@ -3405,9 +3405,9 @@
         <v>0.3284818625</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
         <v>0.5</v>
@@ -3462,9 +3462,9 @@
         <v>0.35951646860000003</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="1">
         <v>0.25</v>
@@ -3519,9 +3519,9 @@
         <v>0.37705100650000001</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="1">
         <v>0.25</v>
@@ -3576,9 +3576,9 @@
         <v>0.37662735899999999</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
         <v>0.5</v>
@@ -3633,9 +3633,9 @@
         <v>0.3912357783</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1">
         <v>0.5</v>
@@ -3690,9 +3690,9 @@
         <v>0.37831810329999999</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1">
         <v>0.5</v>
@@ -3747,9 +3747,9 @@
         <v>0.35117761920000001</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1">
         <v>0.75</v>
@@ -3804,9 +3804,9 @@
         <v>0.33593311009999999</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1">
         <v>0.75</v>
@@ -3861,9 +3861,9 @@
         <v>0.32614805520000001</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1">
         <v>0.75</v>
@@ -3918,9 +3918,9 @@
         <v>0.37524237170000002</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1">
         <v>0.75</v>
@@ -3975,9 +3975,9 @@
         <v>0.36249875650000002</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -4032,9 +4032,9 @@
         <v>0.34893645150000002</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -4089,9 +4089,9 @@
         <v>0.35565901370000003</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -4146,9 +4146,9 @@
         <v>0.36652255760000002</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -4203,9 +4203,9 @@
         <v>0.39973176760000001</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1">
         <v>0.25</v>
@@ -4260,9 +4260,9 @@
         <v>0.31188480359999998</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1">
         <v>0.25</v>
@@ -4317,9 +4317,9 @@
         <v>0.33033534689999999</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="1">
         <v>0.25</v>
@@ -4374,9 +4374,9 @@
         <v>0.37186805620000002</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="1">
         <v>0.25</v>
@@ -4431,9 +4431,9 @@
         <v>0.36619245169999998</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1">
         <v>0.5</v>
@@ -4488,9 +4488,9 @@
         <v>0.3351784927</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71" s="1">
         <v>0.5</v>
@@ -4545,9 +4545,9 @@
         <v>0.4012190497</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72" s="1">
         <v>0.5</v>
@@ -4602,9 +4602,9 @@
         <v>0.37911022350000001</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1">
         <v>0.5</v>
@@ -4659,9 +4659,9 @@
         <v>0.37093895700000001</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1">
         <v>0.75</v>
@@ -4716,9 +4716,9 @@
         <v>0.35598724030000001</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1">
         <v>0.75</v>
@@ -4773,9 +4773,9 @@
         <v>0.3585234471</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1">
         <v>0.75</v>
@@ -4830,9 +4830,9 @@
         <v>0.3681015628</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1">
         <v>0.75</v>
@@ -4887,9 +4887,9 @@
         <v>0.36669401829999998</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -4944,9 +4944,9 @@
         <v>0.32955388959999998</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -5001,9 +5001,9 @@
         <v>0.35617643259999998</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -5058,9 +5058,9 @@
         <v>0.38270701530000001</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -5115,9 +5115,9 @@
         <v>0.3848752594</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1">
         <v>0.25</v>
@@ -5170,9 +5170,9 @@
         <v>0.32350000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="1">
         <v>0.75</v>
@@ -5225,9 +5225,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1">
         <v>0.75</v>
@@ -5280,9 +5280,9 @@
         <v>0.29149999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1">
         <v>0.75</v>
@@ -5335,9 +5335,9 @@
         <v>0.28349999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="1">
         <v>0.75</v>
@@ -5390,9 +5390,9 @@
         <v>0.27950000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
@@ -5443,9 +5443,9 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -5498,9 +5498,9 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -5553,9 +5553,9 @@
         <v>0.28849999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -5608,9 +5608,9 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1">
         <v>0.25</v>
@@ -5661,9 +5661,9 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1">
         <v>0.5</v>
@@ -5716,9 +5716,9 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93" s="1">
         <v>0.25</v>
@@ -5771,9 +5771,9 @@
         <v>0.28349999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94" s="1">
         <v>0.25</v>
@@ -5826,9 +5826,9 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95" s="1">
         <v>0.5</v>
@@ -5881,9 +5881,9 @@
         <v>0.3145</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" s="1">
         <v>0.5</v>
@@ -5936,9 +5936,9 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" s="1">
         <v>0.75</v>
@@ -5991,9 +5991,9 @@
         <v>0.3155</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" s="1">
         <v>0.75</v>
@@ -6046,9 +6046,9 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -6101,9 +6101,9 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -6156,9 +6156,9 @@
         <v>0.32250000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -6211,9 +6211,9 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102" s="1">
         <v>0.75</v>
@@ -6266,9 +6266,9 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" s="1">
         <v>0.75</v>
@@ -6321,9 +6321,9 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" s="1">
         <v>0.75</v>
@@ -6376,9 +6376,9 @@
         <v>0.25950000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105" s="1">
         <v>0.75</v>
@@ -6431,9 +6431,9 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -6486,9 +6486,9 @@
         <v>0.30149999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -6541,9 +6541,9 @@
         <v>0.31950000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108" s="1">
         <v>0.25</v>
@@ -6596,9 +6596,9 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="1">
         <v>0.25</v>
@@ -6651,9 +6651,9 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110" s="1">
         <v>0.5</v>
@@ -6706,9 +6706,9 @@
         <v>0.28949999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="1">
         <v>0.5</v>
@@ -6761,9 +6761,9 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="1">
         <v>0.5</v>
@@ -6816,9 +6816,9 @@
         <v>0.32350000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" s="1">
         <v>0.75</v>
@@ -6871,9 +6871,9 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114" s="1">
         <v>0.75</v>
@@ -6926,9 +6926,9 @@
         <v>0.3085</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115" s="1">
         <v>0.75</v>
@@ -6981,9 +6981,9 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
@@ -7036,9 +7036,9 @@
         <v>0.28949999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -7091,9 +7091,9 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B118" s="1">
         <v>0.5</v>
@@ -7146,9 +7146,9 @@
         <v>0.30549999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1">
         <v>0.5</v>
@@ -7201,9 +7201,9 @@
         <v>0.27950000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B120" s="1">
         <v>0.75</v>
@@ -7256,9 +7256,9 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B121" s="1">
         <v>0.75</v>
@@ -7311,9 +7311,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
@@ -7366,9 +7366,9 @@
         <v>0.28949999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -7421,9 +7421,9 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B124" s="1">
         <v>0.25</v>
@@ -7476,9 +7476,9 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B125" s="1">
         <v>0.25</v>
@@ -7531,9 +7531,9 @@
         <v>0.29949999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B126" s="1">
         <v>0.25</v>
@@ -7586,9 +7586,9 @@
         <v>0.33350000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B127" s="1">
         <v>0.25</v>
@@ -7641,9 +7641,9 @@
         <v>0.32750000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B128" s="1">
         <v>0.5</v>
@@ -7696,9 +7696,9 @@
         <v>0.3085</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B129" s="1">
         <v>0.5</v>
@@ -7751,9 +7751,9 @@
         <v>0.32850000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B130" s="1">
         <v>0.75</v>
@@ -7806,9 +7806,9 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131" s="1">
         <v>0.75</v>
@@ -7861,9 +7861,9 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -7916,9 +7916,9 @@
         <v>0.30049999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
